--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H2">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N2">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O2">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P2">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q2">
-        <v>630.0524282562384</v>
+        <v>548.3331128769642</v>
       </c>
       <c r="R2">
-        <v>5670.471854306145</v>
+        <v>4934.998015892677</v>
       </c>
       <c r="S2">
-        <v>0.05474250227270589</v>
+        <v>0.05431938520429756</v>
       </c>
       <c r="T2">
-        <v>0.05474250227270588</v>
+        <v>0.05431938520429756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H3">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.87276</v>
       </c>
       <c r="O3">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P3">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q3">
-        <v>863.1907454531334</v>
+        <v>611.3958517354401</v>
       </c>
       <c r="R3">
-        <v>7768.7167090782</v>
+        <v>5502.562665618961</v>
       </c>
       <c r="S3">
-        <v>0.07499887188043541</v>
+        <v>0.06056655343770719</v>
       </c>
       <c r="T3">
-        <v>0.0749988718804354</v>
+        <v>0.06056655343770717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H4">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N4">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O4">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P4">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q4">
-        <v>631.1741754194045</v>
+        <v>497.9552111831615</v>
       </c>
       <c r="R4">
-        <v>5680.56757877464</v>
+        <v>4481.596900648453</v>
       </c>
       <c r="S4">
-        <v>0.05483996598187527</v>
+        <v>0.04932881180351898</v>
       </c>
       <c r="T4">
-        <v>0.05483996598187525</v>
+        <v>0.04932881180351897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H5">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N5">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O5">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P5">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q5">
-        <v>988.2498899062317</v>
+        <v>605.7395154523967</v>
       </c>
       <c r="R5">
-        <v>8894.249009156087</v>
+        <v>5451.65563907157</v>
       </c>
       <c r="S5">
-        <v>0.08586471445546338</v>
+        <v>0.06000622121959324</v>
       </c>
       <c r="T5">
-        <v>0.08586471445546337</v>
+        <v>0.06000622121959322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N6">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O6">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P6">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q6">
-        <v>599.1976003396106</v>
+        <v>736.2446236775573</v>
       </c>
       <c r="R6">
-        <v>5392.778403056495</v>
+        <v>6626.201613098016</v>
       </c>
       <c r="S6">
-        <v>0.05206166110521021</v>
+        <v>0.07293441592156388</v>
       </c>
       <c r="T6">
-        <v>0.0520616611052102</v>
+        <v>0.07293441592156387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>93.87276</v>
       </c>
       <c r="O7">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P7">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q7">
         <v>820.9187047217066</v>
@@ -883,10 +883,10 @@
         <v>7388.268342495359</v>
       </c>
       <c r="S7">
-        <v>0.07132603898267706</v>
+        <v>0.08132246310865596</v>
       </c>
       <c r="T7">
-        <v>0.07132603898267705</v>
+        <v>0.08132246310865594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N8">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O8">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P8">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q8">
-        <v>600.2644134780302</v>
+        <v>668.6024215139591</v>
       </c>
       <c r="R8">
-        <v>5402.379721302271</v>
+        <v>6017.421793625632</v>
       </c>
       <c r="S8">
-        <v>0.05215435183702139</v>
+        <v>0.06623359346691869</v>
       </c>
       <c r="T8">
-        <v>0.05215435183702138</v>
+        <v>0.06623359346691868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N9">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O9">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P9">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q9">
-        <v>939.8534725222453</v>
+        <v>813.3239651732355</v>
       </c>
       <c r="R9">
-        <v>8458.681252700208</v>
+        <v>7319.915686559119</v>
       </c>
       <c r="S9">
-        <v>0.0816597612328147</v>
+        <v>0.08057010733554713</v>
       </c>
       <c r="T9">
-        <v>0.08165976123281468</v>
+        <v>0.08057010733554712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H10">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N10">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O10">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P10">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q10">
-        <v>430.8847888527043</v>
+        <v>552.0507746390447</v>
       </c>
       <c r="R10">
-        <v>3877.963099674339</v>
+        <v>4968.456971751401</v>
       </c>
       <c r="S10">
-        <v>0.03743769641254456</v>
+        <v>0.05468766699609782</v>
       </c>
       <c r="T10">
-        <v>0.03743769641254456</v>
+        <v>0.05468766699609781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H11">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.87276</v>
       </c>
       <c r="O11">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P11">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q11">
-        <v>590.3250990136934</v>
+        <v>615.5410746412133</v>
       </c>
       <c r="R11">
-        <v>5312.92589112324</v>
+        <v>5539.86967177092</v>
       </c>
       <c r="S11">
-        <v>0.0512907682362741</v>
+        <v>0.06097719061151378</v>
       </c>
       <c r="T11">
-        <v>0.0512907682362741</v>
+        <v>0.06097719061151377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H12">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N12">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O12">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P12">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q12">
-        <v>431.6519373753831</v>
+        <v>501.3313141475282</v>
       </c>
       <c r="R12">
-        <v>3884.867436378448</v>
+        <v>4511.981827327754</v>
       </c>
       <c r="S12">
-        <v>0.03750435059537578</v>
+        <v>0.04966325784207503</v>
       </c>
       <c r="T12">
-        <v>0.03750435059537578</v>
+        <v>0.04966325784207502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H13">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N13">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O13">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P13">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q13">
-        <v>675.8514467192497</v>
+        <v>609.8463887771961</v>
       </c>
       <c r="R13">
-        <v>6082.663020473247</v>
+        <v>5488.617498994765</v>
       </c>
       <c r="S13">
-        <v>0.05872177885328825</v>
+        <v>0.0604130593785083</v>
       </c>
       <c r="T13">
-        <v>0.05872177885328824</v>
+        <v>0.06041305937850829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H14">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.839587</v>
+        <v>28.063402</v>
       </c>
       <c r="N14">
-        <v>68.518761</v>
+        <v>84.190206</v>
       </c>
       <c r="O14">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="P14">
-        <v>0.2024156068965367</v>
+        <v>0.2422582722789452</v>
       </c>
       <c r="Q14">
-        <v>669.5439394121765</v>
+        <v>608.8747296715286</v>
       </c>
       <c r="R14">
-        <v>6025.89545470959</v>
+        <v>5479.872567043758</v>
       </c>
       <c r="S14">
-        <v>0.05817374710607605</v>
+        <v>0.06031680415698595</v>
       </c>
       <c r="T14">
-        <v>0.05817374710607605</v>
+        <v>0.06031680415698594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H15">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.87276</v>
       </c>
       <c r="O15">
-        <v>0.2773154594323872</v>
+        <v>0.270119931190762</v>
       </c>
       <c r="P15">
-        <v>0.2773154594323872</v>
+        <v>0.2701199311907619</v>
       </c>
       <c r="Q15">
-        <v>917.2953015582666</v>
+        <v>678.9002436758533</v>
       </c>
       <c r="R15">
-        <v>8255.657714024399</v>
+        <v>6110.102193082679</v>
       </c>
       <c r="S15">
-        <v>0.07969978033300064</v>
+        <v>0.06725372403288507</v>
       </c>
       <c r="T15">
-        <v>0.07969978033300064</v>
+        <v>0.06725372403288506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H16">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.88025066666667</v>
+        <v>25.48508733333334</v>
       </c>
       <c r="N16">
-        <v>68.64075199999999</v>
+        <v>76.455262</v>
       </c>
       <c r="O16">
-        <v>0.2027759882277303</v>
+        <v>0.22000088322333</v>
       </c>
       <c r="P16">
-        <v>0.2027759882277302</v>
+        <v>0.2200008832233299</v>
       </c>
       <c r="Q16">
-        <v>670.7359973758755</v>
+        <v>552.9345893537296</v>
       </c>
       <c r="R16">
-        <v>6036.623976382879</v>
+        <v>4976.411304183566</v>
       </c>
       <c r="S16">
-        <v>0.05827731981345786</v>
+        <v>0.05477522011081729</v>
       </c>
       <c r="T16">
-        <v>0.05827731981345785</v>
+        <v>0.05477522011081728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H17">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.824351</v>
+        <v>31.00143166666667</v>
       </c>
       <c r="N17">
-        <v>107.473053</v>
+        <v>93.004295</v>
       </c>
       <c r="O17">
-        <v>0.3174929454433459</v>
+        <v>0.2676209133069629</v>
       </c>
       <c r="P17">
-        <v>0.3174929454433458</v>
+        <v>0.2676209133069628</v>
       </c>
       <c r="Q17">
-        <v>1050.193118440563</v>
+        <v>672.6193896759927</v>
       </c>
       <c r="R17">
-        <v>9451.73806596507</v>
+        <v>6053.574507083935</v>
       </c>
       <c r="S17">
-        <v>0.09124669090177956</v>
+        <v>0.06663152537331418</v>
       </c>
       <c r="T17">
-        <v>0.09124669090177956</v>
+        <v>0.06663152537331417</v>
       </c>
     </row>
   </sheetData>
